--- a/babysmile/Assets/ExcelData/工作簿1.xlsx
+++ b/babysmile/Assets/ExcelData/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="148">
   <si>
     <t>源type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,202 @@
   </si>
   <si>
     <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接浇花壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇花壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,6 +998,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -826,17 +1025,23 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -875,6 +1080,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -899,17 +1107,23 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -948,6 +1162,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -972,17 +1189,23 @@
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -1021,6 +1244,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1045,17 +1271,23 @@
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1094,6 +1326,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1118,17 +1353,23 @@
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
@@ -1167,6 +1408,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1191,17 +1435,23 @@
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -1240,6 +1490,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1264,17 +1517,23 @@
       <c r="I14" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -1313,6 +1572,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1337,17 +1599,23 @@
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
       <c r="C17" s="1">
         <v>6</v>
       </c>
@@ -1386,6 +1654,9 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1410,17 +1681,23 @@
       <c r="I18" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -1459,6 +1736,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1483,17 +1763,23 @@
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -1532,6 +1818,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1556,17 +1845,23 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="M22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>10</v>
-      </c>
       <c r="C23" s="1">
         <v>10</v>
       </c>
@@ -1605,6 +1900,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1629,17 +1927,23 @@
       <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>11</v>
-      </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -1678,6 +1982,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1702,17 +2009,23 @@
       <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>12</v>
-      </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -1751,6 +2064,9 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1775,17 +2091,23 @@
       <c r="I28" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
@@ -1820,6 +2142,416 @@
         <v>30</v>
       </c>
       <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>0</v>
       </c>
     </row>

--- a/babysmile/Assets/ExcelData/工作簿1.xlsx
+++ b/babysmile/Assets/ExcelData/工作簿1.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/babysmile/Assets/ExcelData/工作簿1.xlsx
+++ b/babysmile/Assets/ExcelData/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
   <si>
     <t>源type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,90 @@
   </si>
   <si>
     <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崭新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布（不哭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布（哭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崭新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2553,6 +2637,252 @@
       </c>
       <c r="N39" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/babysmile/Assets/ExcelData/工作簿1.xlsx
+++ b/babysmile/Assets/ExcelData/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
   <si>
     <t>源type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摘花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,11 +274,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成花</t>
+    <t>开机接单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接浇花壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇花壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污渍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崭新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布（不哭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布（哭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崭新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换尿布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,395 +670,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开机接单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩具柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接浇花壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浇花壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接水桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲污渍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污渍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干燥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦污渍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗拖布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污渍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买尿布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储物柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崭新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换尿布（不哭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换尿布（哭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崭新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换尿布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1023,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1069,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1086,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1110,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -1171,7 +1155,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1192,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -1201,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1256,25 +1240,25 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -1283,10 +1267,10 @@
         <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1338,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -1347,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -1356,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -1365,10 +1349,10 @@
         <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1420,7 +1404,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1429,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1438,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
@@ -1447,10 +1431,10 @@
         <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,19 +1483,19 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
@@ -1520,7 +1504,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1529,10 +1513,10 @@
         <v>25</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1593,7 +1577,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -1602,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -1611,10 +1595,10 @@
         <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1660,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1675,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>30</v>
@@ -1684,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>43</v>
@@ -1693,10 +1677,10 @@
         <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1745,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
@@ -1763,10 +1747,10 @@
         <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>16</v>
@@ -1775,10 +1759,10 @@
         <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1827,40 +1811,40 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1889,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1909,40 +1893,40 @@
         <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1962,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1971,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="K23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -1988,13 +1972,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>67</v>
@@ -2009,19 +1993,19 @@
         <v>69</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>130</v>
@@ -2035,22 +2019,22 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -2059,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -2070,43 +2054,43 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2120,19 +2104,19 @@
         <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -2141,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2152,60 +2136,60 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -2214,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2223,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2246,36 +2230,36 @@
         <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2316,43 +2300,43 @@
         <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2360,19 +2344,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2398,63 +2382,63 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>14</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2480,43 +2464,43 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2524,19 +2508,19 @@
         <v>13</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2562,69 +2546,69 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2633,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -2644,57 +2628,57 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2703,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2715,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2726,10 +2710,10 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>155</v>
@@ -2738,31 +2722,31 @@
         <v>156</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2776,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -2794,94 +2778,12 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>21</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" s="1">
-        <v>16</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>2</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>10</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>3</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
         <v>2</v>
       </c>
     </row>

--- a/babysmile/Assets/ExcelData/工作簿1.xlsx
+++ b/babysmile/Assets/ExcelData/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
   <si>
     <t>源type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开机接单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,27 +282,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1053,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1070,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
@@ -1155,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1176,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -1185,10 +1169,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1240,25 +1224,25 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -1267,10 +1251,10 @@
         <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1322,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -1331,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -1340,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -1349,10 +1333,10 @@
         <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1404,7 +1388,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1413,7 +1397,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>31</v>
@@ -1422,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
@@ -1431,10 +1415,10 @@
         <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,19 +1467,19 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
@@ -1504,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1513,10 +1497,10 @@
         <v>25</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1577,7 +1561,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -1586,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -1595,10 +1579,10 @@
         <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1659,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>30</v>
@@ -1668,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>43</v>
@@ -1677,10 +1661,10 @@
         <v>44</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1729,7 +1713,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
@@ -1750,7 +1734,7 @@
         <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>16</v>
@@ -1759,10 +1743,10 @@
         <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1814,7 +1798,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>56</v>
@@ -1823,7 +1807,7 @@
         <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>58</v>
@@ -1832,19 +1816,19 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1896,7 +1880,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>60</v>
@@ -1905,28 +1889,28 @@
         <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1967,118 +1951,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>11</v>
@@ -2087,10 +1989,10 @@
         <v>11</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -2116,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -2136,43 +2038,43 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2218,22 +2120,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>27</v>
@@ -2242,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>42</v>
@@ -2251,10 +2153,10 @@
         <v>11</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2300,31 +2202,31 @@
         <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>12</v>
@@ -2333,10 +2235,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2382,31 +2284,31 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>16</v>
@@ -2415,10 +2317,10 @@
         <v>12</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2464,22 +2366,22 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>27</v>
@@ -2488,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>16</v>
@@ -2497,10 +2399,10 @@
         <v>16</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2546,43 +2448,43 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2628,43 +2530,43 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2707,46 +2609,46 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
